--- a/data/kpop_management_map.xlsx
+++ b/data/kpop_management_map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Desktop/push to git kpop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEF420-71D5-F449-8ED1-CBC99AA08FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA4CEE-471D-404D-BDAF-4B8923EEBC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/data/kpop_management_map.xlsx
+++ b/data/kpop_management_map.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA4CEE-471D-404D-BDAF-4B8923EEBC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2FCE0-3CEF-F441-8CBD-20B315580782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,159 +39,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
-  <si>
-    <t>EXO: SM Entertainment,</t>
-  </si>
-  <si>
-    <t>BLACKPINK: YG Entertainment,</t>
-  </si>
-  <si>
-    <t>TWICE: JYP Entertainment,</t>
-  </si>
-  <si>
-    <t>BTS: Big Hit Entertainment (HYBE),</t>
-  </si>
-  <si>
-    <t>(G)I-DLE: Cube Entertainment,</t>
-  </si>
-  <si>
-    <t>SEVENTEEN: Pledis Entertainment,</t>
-  </si>
-  <si>
-    <t>Lovelyz: Woollim Entertainment,</t>
-  </si>
-  <si>
-    <t>MONSTA X: Starship Entertainment,</t>
-  </si>
-  <si>
-    <t>CNBLUE: FNC Entertainment,</t>
-  </si>
-  <si>
-    <t>MAMAMOO: RBW (Rainbow Bridge World),</t>
-  </si>
-  <si>
-    <t>KARA: DSP Media,</t>
-  </si>
-  <si>
-    <t>Chungha: MNH Entertainment,</t>
-  </si>
-  <si>
-    <t>IZ*ONE: Stone Music Entertainment,</t>
-  </si>
-  <si>
-    <t>NCT 127: SM Entertainment,</t>
-  </si>
-  <si>
-    <t>BIGBANG: YG Entertainment,</t>
-  </si>
-  <si>
-    <t>Stray Kids: JYP Entertainment,</t>
-  </si>
-  <si>
-    <t>TXT: Big Hit Entertainment (HYBE),</t>
-  </si>
-  <si>
-    <t>Pentagon: Cube Entertainment,</t>
-  </si>
-  <si>
-    <t>Golden Child: Woollim Entertainment,</t>
-  </si>
-  <si>
-    <t>WJSN: Starship Entertainment,</t>
-  </si>
-  <si>
-    <t>AOA: FNC Entertainment,</t>
-  </si>
-  <si>
-    <t>ONEUS: RBW (Rainbow Bridge World),</t>
-  </si>
-  <si>
-    <t>APRIL: DSP Media,</t>
-  </si>
-  <si>
-    <t>fromis_9: Pledis Entertainment,</t>
-  </si>
-  <si>
-    <t>Red Velvet: SM Entertainment,</t>
-  </si>
-  <si>
-    <t>iKON: YG Entertainment,</t>
-  </si>
-  <si>
-    <t>ITZY: JYP Entertainment,</t>
-  </si>
-  <si>
-    <t>ENHYPEN: Big Hit Entertainment (HYBE),</t>
-  </si>
-  <si>
-    <t>BTOB: Cube Entertainment,</t>
-  </si>
-  <si>
-    <t>NU'EST: Pledis Entertainment,</t>
-  </si>
-  <si>
-    <t>INFINITE: Woollim Entertainment,</t>
-  </si>
-  <si>
-    <t>CRAVITY: Starship Entertainment,</t>
-  </si>
-  <si>
-    <t>Cherry Bullet: FNC Entertainment,</t>
-  </si>
-  <si>
-    <t>ONEWE: RBW (Rainbow Bridge World),</t>
-  </si>
-  <si>
-    <t>MIRAE: DSP Media,</t>
-  </si>
-  <si>
-    <t>Super Junior: SM Entertainment,</t>
-  </si>
-  <si>
-    <t>Winner: YG Entertainment,</t>
-  </si>
-  <si>
-    <t>GOT7: JYP Entertainment,</t>
-  </si>
-  <si>
-    <t>CLC: Cube Entertainment,</t>
-  </si>
-  <si>
-    <t>Rocket Punch: Woollim Entertainment,</t>
-  </si>
-  <si>
-    <t>BOYFRIEND: Starship Entertainment,</t>
-  </si>
-  <si>
-    <t>N.Flying: FNC Entertainment,</t>
-  </si>
-  <si>
-    <t>PURPLE KISS: RBW (Rainbow Bridge World),</t>
-  </si>
-  <si>
-    <t>SISTAR: Starship Entertainment,</t>
-  </si>
-  <si>
-    <t>FTISLAND: FNC Entertainment,</t>
-  </si>
-  <si>
-    <t>SHINee: SM Entertainment,</t>
-  </si>
-  <si>
-    <t>Treasure: YG Entertainment,</t>
-  </si>
-  <si>
-    <t>2PM: JYP Entertainment,</t>
-  </si>
-  <si>
-    <t>GFRIEND: Big Hit Entertainment (HYBE),</t>
-  </si>
-  <si>
-    <t>Idle: Cube Entertainment,</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>aespa: SM Entertainment</t>
+  </si>
+  <si>
+    <t>ASTRO: Fantagio</t>
+  </si>
+  <si>
+    <t>ATEEZ: KQ Entertainment</t>
+  </si>
+  <si>
+    <t>BOYNEXTDOOR: Hunus Entertainment</t>
+  </si>
+  <si>
+    <t>DXMON: TOP Media</t>
+  </si>
+  <si>
+    <t>EVERGLOW: Yuehua Entertainment</t>
+  </si>
+  <si>
+    <t>IVE: Starship Entertainment</t>
+  </si>
+  <si>
+    <t>KARD: DSP Media</t>
+  </si>
+  <si>
+    <t>KATSEYE: Klap</t>
+  </si>
+  <si>
+    <t>Le Sserafim: Source Music</t>
+  </si>
+  <si>
+    <t>LOONA: Blockberry Creative</t>
+  </si>
+  <si>
+    <t>MOMOLAND: MLD Entertainment</t>
+  </si>
+  <si>
+    <t>NCT: SM Entertainment</t>
+  </si>
+  <si>
+    <t>NCT WISH: SM Entertainment</t>
+  </si>
+  <si>
+    <t>NewJeans: ADOR</t>
+  </si>
+  <si>
+    <t>RIIZE: A.CONIC</t>
+  </si>
+  <si>
+    <t>SF9: FNC Entertainment</t>
+  </si>
+  <si>
+    <t>STAYC: High Up Entertainment</t>
+  </si>
+  <si>
+    <t>The Boyz: IST Entertainment</t>
+  </si>
+  <si>
+    <t>TVXQ: SM Entertainment</t>
+  </si>
+  <si>
+    <t>TWS: T. Entertainment</t>
+  </si>
+  <si>
+    <t>VCHA: GP39</t>
+  </si>
+  <si>
+    <t>WiTCHX: WM Entertainment</t>
+  </si>
+  <si>
+    <t>ZEROBASEONE: MAJOR9</t>
+  </si>
+  <si>
+    <t>EXO: SM Entertainment</t>
+  </si>
+  <si>
+    <t>BLACKPINK: YG Entertainment</t>
+  </si>
+  <si>
+    <t>TWICE: JYP Entertainment</t>
+  </si>
+  <si>
+    <t>BTS: Big Hit Entertainment (HYBE)</t>
+  </si>
+  <si>
+    <t>(G)I-DLE: Cube Entertainment</t>
+  </si>
+  <si>
+    <t>SEVENTEEN: Pledis Entertainment</t>
+  </si>
+  <si>
+    <t>Lovelyz: Woollim Entertainment</t>
+  </si>
+  <si>
+    <t>MONSTA X: Starship Entertainment</t>
+  </si>
+  <si>
+    <t>CNBLUE: FNC Entertainment</t>
+  </si>
+  <si>
+    <t>MAMAMOO: RBW (Rainbow Bridge World)</t>
+  </si>
+  <si>
+    <t>KARA: DSP Media</t>
+  </si>
+  <si>
+    <t>Chungha: MNH Entertainment</t>
+  </si>
+  <si>
+    <t>IZ*ONE: Stone Music Entertainment</t>
+  </si>
+  <si>
+    <t>NCT 127: SM Entertainment</t>
+  </si>
+  <si>
+    <t>BIGBANG: YG Entertainment</t>
+  </si>
+  <si>
+    <t>Stray Kids: JYP Entertainment</t>
+  </si>
+  <si>
+    <t>TXT: Big Hit Entertainment (HYBE)</t>
+  </si>
+  <si>
+    <t>Pentagon: Cube Entertainment</t>
+  </si>
+  <si>
+    <t>Golden Child: Woollim Entertainment</t>
+  </si>
+  <si>
+    <t>WJSN: Starship Entertainment</t>
+  </si>
+  <si>
+    <t>AOA: FNC Entertainment</t>
+  </si>
+  <si>
+    <t>ONEUS: RBW (Rainbow Bridge World)</t>
+  </si>
+  <si>
+    <t>APRIL: DSP Media</t>
+  </si>
+  <si>
+    <t>fromis_9: Pledis Entertainment</t>
+  </si>
+  <si>
+    <t>Red Velvet: SM Entertainment</t>
+  </si>
+  <si>
+    <t>iKON: YG Entertainment</t>
+  </si>
+  <si>
+    <t>ITZY: JYP Entertainment</t>
+  </si>
+  <si>
+    <t>ENHYPEN: Big Hit Entertainment (HYBE)</t>
+  </si>
+  <si>
+    <t>BTOB: Cube Entertainment</t>
+  </si>
+  <si>
+    <t>NU'EST: Pledis Entertainment</t>
+  </si>
+  <si>
+    <t>INFINITE: Woollim Entertainment</t>
+  </si>
+  <si>
+    <t>CRAVITY: Starship Entertainment</t>
+  </si>
+  <si>
+    <t>Cherry Bullet: FNC Entertainment</t>
+  </si>
+  <si>
+    <t>ONEWE: RBW (Rainbow Bridge World)</t>
+  </si>
+  <si>
+    <t>MIRAE: DSP Media</t>
+  </si>
+  <si>
+    <t>Super Junior: SM Entertainment</t>
+  </si>
+  <si>
+    <t>Winner: YG Entertainment</t>
+  </si>
+  <si>
+    <t>GOT7: JYP Entertainment</t>
+  </si>
+  <si>
+    <t>CLC: Cube Entertainment</t>
+  </si>
+  <si>
+    <t>Rocket Punch: Woollim Entertainment</t>
+  </si>
+  <si>
+    <t>BOYFRIEND: Starship Entertainment</t>
+  </si>
+  <si>
+    <t>N.Flying: FNC Entertainment</t>
+  </si>
+  <si>
+    <t>PURPLE KISS: RBW (Rainbow Bridge World)</t>
+  </si>
+  <si>
+    <t>SISTAR: Starship Entertainment</t>
+  </si>
+  <si>
+    <t>FTISLAND: FNC Entertainment</t>
+  </si>
+  <si>
+    <t>SHINee: SM Entertainment</t>
+  </si>
+  <si>
+    <t>Treasure: YG Entertainment</t>
+  </si>
+  <si>
+    <t>2PM: JYP Entertainment</t>
+  </si>
+  <si>
+    <t>GFRIEND: Big Hit Entertainment (HYBE)</t>
+  </si>
+  <si>
+    <t>Idle: Cube Entertainment</t>
   </si>
 </sst>
 </file>
@@ -241,7 +316,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -551,9 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D7C665-9699-2C43-BF41-188E806680F5}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -562,260 +648,383 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/kpop_management_map.xlsx
+++ b/data/kpop_management_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F2DA5-AA5B-FF46-AA87-917F0374726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAC2C0-5FBD-7B4F-AD68-4FD271746B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D7C665-9699-2C43-BF41-188E806680F5}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/kpop_management_map.xlsx
+++ b/data/kpop_management_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAC2C0-5FBD-7B4F-AD68-4FD271746B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19899D-45BA-9D41-836D-DDB6AFC84E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16440" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -484,7 +484,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -590,7 +590,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -732,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/data/kpop_management_map.xlsx
+++ b/data/kpop_management_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylergleeson/Documents/GitHub/kpop_analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19899D-45BA-9D41-836D-DDB6AFC84E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0675A2A4-2723-CC48-9EE8-4B4FEA9A3016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16440" xr2:uid="{7E27119F-38C3-4142-8AB5-BDD879A7F680}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
   <si>
     <t>EXO</t>
   </si>
@@ -357,6 +357,225 @@
   </si>
   <si>
     <t>MAJOR9</t>
+  </si>
+  <si>
+    <t>AILEE</t>
+  </si>
+  <si>
+    <t>YMC Entertainment</t>
+  </si>
+  <si>
+    <t>BAEKHYUN</t>
+  </si>
+  <si>
+    <t>CHEN</t>
+  </si>
+  <si>
+    <t>Suzy</t>
+  </si>
+  <si>
+    <t>Management SOOP</t>
+  </si>
+  <si>
+    <t>CHANYEOL</t>
+  </si>
+  <si>
+    <t>Raiden</t>
+  </si>
+  <si>
+    <t>YERI</t>
+  </si>
+  <si>
+    <t>RYEOWOOK</t>
+  </si>
+  <si>
+    <t>CHOI SIWON</t>
+  </si>
+  <si>
+    <t>DOYOUNG</t>
+  </si>
+  <si>
+    <t>TAEIL</t>
+  </si>
+  <si>
+    <t>EUNHYUK</t>
+  </si>
+  <si>
+    <t>KIM HEECHUL</t>
+  </si>
+  <si>
+    <t>EXO-CBX</t>
+  </si>
+  <si>
+    <t>EXO-SC</t>
+  </si>
+  <si>
+    <t>HYO</t>
+  </si>
+  <si>
+    <t>GINJO</t>
+  </si>
+  <si>
+    <t>TAEYEON</t>
+  </si>
+  <si>
+    <t>Girls' Generation</t>
+  </si>
+  <si>
+    <t>Girls' Generation-Oh!GG</t>
+  </si>
+  <si>
+    <t>Girls' Generation-TTS</t>
+  </si>
+  <si>
+    <t>GOT the beat</t>
+  </si>
+  <si>
+    <t>HAECHAN</t>
+  </si>
+  <si>
+    <t>TAEYONG</t>
+  </si>
+  <si>
+    <t>HYOYEON</t>
+  </si>
+  <si>
+    <t>IMLAY</t>
+  </si>
+  <si>
+    <t>Kep1er</t>
+  </si>
+  <si>
+    <t>Wake One Entertainment</t>
+  </si>
+  <si>
+    <t>NCT DREAM</t>
+  </si>
+  <si>
+    <t>WayV</t>
+  </si>
+  <si>
+    <t>NO:EL</t>
+  </si>
+  <si>
+    <t>Indigo Music</t>
+  </si>
+  <si>
+    <t>JAEHYUN</t>
+  </si>
+  <si>
+    <t>Jay Park</t>
+  </si>
+  <si>
+    <t>AOMG</t>
+  </si>
+  <si>
+    <t>JEON SOYEON</t>
+  </si>
+  <si>
+    <t>SEULGI</t>
+  </si>
+  <si>
+    <t>JONGHYUN</t>
+  </si>
+  <si>
+    <t>JUNGWOO</t>
+  </si>
+  <si>
+    <t>KANGIN</t>
+  </si>
+  <si>
+    <t>KANGTA</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>KYUHYUN</t>
+  </si>
+  <si>
+    <t>SUHO</t>
+  </si>
+  <si>
+    <t>LEETEUK</t>
+  </si>
+  <si>
+    <t>MAX CHANGMIN</t>
+  </si>
+  <si>
+    <t>MINHO</t>
+  </si>
+  <si>
+    <t>Yoon Mirae</t>
+  </si>
+  <si>
+    <t>Feel Ghood Music</t>
+  </si>
+  <si>
+    <t>NCT U</t>
+  </si>
+  <si>
+    <t>WINTER</t>
+  </si>
+  <si>
+    <t>BoA</t>
+  </si>
+  <si>
+    <t>NINGNING</t>
+  </si>
+  <si>
+    <t>ONEW</t>
+  </si>
+  <si>
+    <t>Red Velvet - IRENE &amp; SEULGI</t>
+  </si>
+  <si>
+    <t>SUNNY</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>SHINDONG</t>
+  </si>
+  <si>
+    <t>SISTAR19</t>
+  </si>
+  <si>
+    <t>SUNGMIN</t>
+  </si>
+  <si>
+    <t>SUPER JUNIOR-D&amp;E</t>
+  </si>
+  <si>
+    <t>SUPER JUNIOR-K.R.Y.</t>
+  </si>
+  <si>
+    <t>TAEMIN</t>
+  </si>
+  <si>
+    <t>TVXQ!</t>
+  </si>
+  <si>
+    <t>WayV-KUN&amp;XIAOJUN</t>
+  </si>
+  <si>
+    <t>WayV-TEN&amp;YANGYANG</t>
+  </si>
+  <si>
+    <t>WinWin 楊安妮</t>
+  </si>
+  <si>
+    <t>XIUMIN</t>
+  </si>
+  <si>
+    <t>YESUNG</t>
+  </si>
+  <si>
+    <t>YOONA</t>
+  </si>
+  <si>
+    <t>ZHOUMI</t>
   </si>
 </sst>
 </file>
@@ -740,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D7C665-9699-2C43-BF41-188E806680F5}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,6 +1571,542 @@
         <v>105</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
